--- a/Projektdokumente/Projektplan.xlsx
+++ b/Projektdokumente/Projektplan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,28 @@
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -832,8 +853,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1192,7 +1213,10 @@
       <c r="F14" s="31"/>
       <c r="G14" s="30"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="str">
+        <f t="shared" ref="I14:I31" ca="1" si="1">IF(E14&lt;&gt;"",IF(H14="X",0,IF(AND(H14&lt;&gt;"x",E14&lt;TODAY()),2,IF(H14&lt;&gt;"x",1,0))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1">
       <c r="A15" s="1" t="s">
@@ -1211,11 +1235,16 @@
         <v>41157</v>
       </c>
       <c r="F15" s="31">
-        <v>5</v>
-      </c>
-      <c r="G15" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="30">
+        <v>3</v>
+      </c>
       <c r="H15" s="24"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
@@ -1234,11 +1263,13 @@
         <v>41157</v>
       </c>
       <c r="F16" s="31">
-        <v>5</v>
-      </c>
-      <c r="G16" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="G16" s="30">
+        <v>3</v>
+      </c>
       <c r="I16" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1251,7 +1282,7 @@
       </c>
       <c r="G17" s="30"/>
       <c r="I17" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
@@ -1272,11 +1303,11 @@
         <v>41157</v>
       </c>
       <c r="F18" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" s="30"/>
       <c r="I18" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1297,11 +1328,11 @@
         <v>41157</v>
       </c>
       <c r="F19" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G19" s="30"/>
       <c r="I19" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1314,7 +1345,7 @@
       </c>
       <c r="G20" s="30"/>
       <c r="I20" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
@@ -1335,11 +1366,11 @@
         <v>41157</v>
       </c>
       <c r="F21" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21" s="30"/>
       <c r="I21" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1360,11 +1391,11 @@
         <v>41157</v>
       </c>
       <c r="F22" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G22" s="30"/>
       <c r="I22" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1408,7 @@
       </c>
       <c r="G23" s="30"/>
       <c r="I23" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
@@ -1398,11 +1429,11 @@
         <v>41157</v>
       </c>
       <c r="F24" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G24" s="30"/>
       <c r="I24" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1423,11 +1454,11 @@
         <v>41157</v>
       </c>
       <c r="F25" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" s="30"/>
       <c r="I25" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1452,7 +1483,7 @@
       </c>
       <c r="G26" s="30"/>
       <c r="I26" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1464,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
@@ -1485,10 +1516,10 @@
         <v>41164</v>
       </c>
       <c r="F28" s="31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1509,10 +1540,10 @@
         <v>41164</v>
       </c>
       <c r="F29" s="31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1536,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1557,10 +1588,10 @@
         <v>41178</v>
       </c>
       <c r="F31" s="31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1570,7 +1601,7 @@
       </c>
       <c r="F33" s="34">
         <f>SUM(F3:F31)</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G33" s="34"/>
     </row>
@@ -1581,7 +1612,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="35">
         <f>SUM(G3:G27)</f>
-        <v>50.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -1591,19 +1622,19 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36">
         <f>G34-F33</f>
-        <v>-129.5</v>
+        <v>-124.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",I1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Projektdokumente/Projektplan.xlsx
+++ b/Projektdokumente/Projektplan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -494,49 +494,7 @@
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -853,8 +811,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -966,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I31" ca="1" si="0">IF(E4&lt;&gt;"",IF(H4="X",0,IF(AND(H4&lt;&gt;"x",E4&lt;TODAY()),2,IF(H4&lt;&gt;"x",1,0))),"")</f>
+        <f t="shared" ref="I4:I11" ca="1" si="0">IF(E4&lt;&gt;"",IF(H4="X",0,IF(AND(H4&lt;&gt;"x",E4&lt;TODAY()),2,IF(H4&lt;&gt;"x",1,0))),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1023,7 +981,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1">
@@ -1124,7 +1082,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1">
@@ -1393,7 +1351,9 @@
       <c r="F22" s="31">
         <v>7</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="30">
+        <v>2</v>
+      </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -1612,7 +1572,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="35">
         <f>SUM(G3:G27)</f>
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -1622,19 +1582,19 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36">
         <f>G34-F33</f>
-        <v>-124.5</v>
+        <v>-122.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",I1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Projektdokumente/Projektplan.xlsx
+++ b/Projektdokumente/Projektplan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>Aktivität</t>
   </si>
@@ -811,8 +811,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -977,11 +977,15 @@
       <c r="F6" s="30">
         <v>4</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1">
@@ -1079,10 +1083,12 @@
       <c r="G10" s="33">
         <v>12</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1">
@@ -1152,10 +1158,12 @@
       <c r="G13" s="30">
         <v>9</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="I13" s="3">
         <f ca="1">IF(E13&lt;&gt;"",IF(H13="X",0,IF(AND(H13&lt;&gt;"x",E13&lt;TODAY()),2,IF(H13&lt;&gt;"x",1,0))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1">
@@ -1196,7 +1204,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="30">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="3">
@@ -1224,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="30">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1263,7 +1271,9 @@
       <c r="F18" s="31">
         <v>7</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="30">
+        <v>4.5</v>
+      </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -1288,7 +1298,9 @@
       <c r="F19" s="31">
         <v>7</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="30">
+        <v>3</v>
+      </c>
       <c r="I19" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -1326,7 +1338,9 @@
       <c r="F21" s="31">
         <v>7</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="30">
+        <v>6.5</v>
+      </c>
       <c r="I21" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -1441,7 +1455,9 @@
       <c r="F26" s="31">
         <v>30</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="30">
+        <v>10</v>
+      </c>
       <c r="I26" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -1550,6 +1566,9 @@
       <c r="F31" s="31">
         <v>25</v>
       </c>
+      <c r="G31" s="31">
+        <v>10</v>
+      </c>
       <c r="I31" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -1571,8 +1590,8 @@
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35">
-        <f>SUM(G3:G27)</f>
-        <v>58.5</v>
+        <f>SUM(G3:G31)</f>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -1582,7 +1601,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36">
         <f>G34-F33</f>
-        <v>-122.5</v>
+        <v>-78</v>
       </c>
     </row>
   </sheetData>

--- a/Projektdokumente/Projektplan.xlsx
+++ b/Projektdokumente/Projektplan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280"/>
@@ -811,8 +811,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="30">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>10</v>
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1405,7 +1405,9 @@
       <c r="F24" s="31">
         <v>7</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="30">
+        <v>2</v>
+      </c>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -1430,7 +1432,9 @@
       <c r="F25" s="31">
         <v>7</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="30">
+        <v>4</v>
+      </c>
       <c r="I25" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -1591,7 +1595,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="35">
         <f>SUM(G3:G31)</f>
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -1601,7 +1605,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36">
         <f>G34-F33</f>
-        <v>-78</v>
+        <v>-67</v>
       </c>
     </row>
   </sheetData>

--- a/Projektdokumente/Projektplan.xlsx
+++ b/Projektdokumente/Projektplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan zu Beginn" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="88">
   <si>
     <t>Aktivität</t>
   </si>
@@ -252,6 +252,60 @@
   <si>
     <t>3.6</t>
   </si>
+  <si>
+    <t>Bearbeiter</t>
+  </si>
+  <si>
+    <t>BO = Böselager</t>
+  </si>
+  <si>
+    <t>ST = Steffen</t>
+  </si>
+  <si>
+    <t>BR = Braun</t>
+  </si>
+  <si>
+    <t>(Std.)</t>
+  </si>
+  <si>
+    <t>16. Jul.</t>
+  </si>
+  <si>
+    <t>14. Aug.</t>
+  </si>
+  <si>
+    <t>20. Jul.</t>
+  </si>
+  <si>
+    <t>16. Aug.</t>
+  </si>
+  <si>
+    <t>7. Aug.</t>
+  </si>
+  <si>
+    <t>2. Aug.</t>
+  </si>
+  <si>
+    <t>9. Jul.</t>
+  </si>
+  <si>
+    <t>1. Aug.</t>
+  </si>
+  <si>
+    <t>20. Aug.</t>
+  </si>
+  <si>
+    <t>5. Sep.</t>
+  </si>
+  <si>
+    <t>5. Aug.</t>
+  </si>
+  <si>
+    <t>12. Sep.</t>
+  </si>
+  <si>
+    <t>26. Sep.</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +315,7 @@
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmm/;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +367,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,7 +411,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -367,8 +429,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -382,9 +450,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -444,12 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -474,8 +533,104 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="23">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -484,6 +639,9 @@
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -492,9 +650,33 @@
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -811,43 +993,43 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A31" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="12"/>
-    <col min="6" max="6" width="7.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="11"/>
+    <col min="6" max="6" width="7.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="23" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="56">
       <c r="A1" s="4"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -858,39 +1040,39 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>41106</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>41106</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <v>2</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <v>2</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="3">
@@ -902,25 +1084,25 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>41135</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>41135</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>2</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>2</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="3">
@@ -932,25 +1114,25 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>41110</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>41110</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>3</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>5.5</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="3">
@@ -962,25 +1144,25 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>41135</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>41137</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>4</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>4.5</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="3">
@@ -992,25 +1174,25 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>41128</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>41128</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <v>3</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <v>6</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="3">
@@ -1022,25 +1204,25 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>41123</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>41123</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <v>8</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>9</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="3">
@@ -1052,68 +1234,68 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="27"/>
       <c r="I9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>41099</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>41137</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="29">
         <v>10</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="30">
         <v>12</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1">
+    <row r="11" spans="1:9" s="6" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>41122</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>41137</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="28">
         <v>3</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="27">
         <v>6</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="3">
@@ -1121,44 +1303,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="7" customFormat="1">
+    <row r="12" spans="1:9" s="6" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>41137</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>41141</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="28">
         <v>9</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="27">
         <v>9</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="3">
@@ -1166,87 +1348,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1">
+    <row r="14" spans="1:9" s="6" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="24"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="3" t="str">
         <f t="shared" ref="I14:I31" ca="1" si="1">IF(E14&lt;&gt;"",IF(H14="X",0,IF(AND(H14&lt;&gt;"x",E14&lt;TODAY()),2,IF(H14&lt;&gt;"x",1,0))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1">
+    <row r="15" spans="1:9" s="6" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>41141</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>41157</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="28">
         <v>7</v>
       </c>
-      <c r="G15" s="30">
-        <v>7.5</v>
-      </c>
-      <c r="H15" s="24"/>
+      <c r="G15" s="27">
+        <v>9.5</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>41141</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>41157</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="28">
         <v>7</v>
       </c>
-      <c r="G16" s="30">
-        <v>4.5</v>
+      <c r="G16" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="27"/>
       <c r="I17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1256,64 +1443,70 @@
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>41141</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>41157</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="28">
         <v>7</v>
       </c>
-      <c r="G18" s="30">
-        <v>4.5</v>
+      <c r="G18" s="27">
+        <v>5</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>41141</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>41157</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="28">
         <v>7</v>
       </c>
-      <c r="G19" s="30">
-        <v>3</v>
+      <c r="G19" s="27">
+        <v>4</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="27"/>
       <c r="I20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1323,64 +1516,70 @@
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>41141</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>41157</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="28">
         <v>7</v>
       </c>
-      <c r="G21" s="30">
-        <v>6.5</v>
+      <c r="G21" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>41141</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>41157</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="28">
         <v>7</v>
       </c>
-      <c r="G22" s="30">
-        <v>6</v>
+      <c r="G22" s="27">
+        <v>7</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="27"/>
       <c r="I23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1390,88 +1589,97 @@
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>41141</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>41157</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="28">
         <v>7</v>
       </c>
-      <c r="G24" s="30">
-        <v>2</v>
+      <c r="G24" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>41141</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>41157</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="28">
         <v>7</v>
       </c>
-      <c r="G25" s="30">
-        <v>4</v>
+      <c r="G25" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>41137</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>41157</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="28">
         <v>30</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="27">
+        <v>20</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3" t="str">
@@ -1483,19 +1691,19 @@
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>41126</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>41164</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="28">
         <v>10</v>
       </c>
       <c r="I28" s="3">
@@ -1507,19 +1715,19 @@
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>41126</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>41164</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="28">
         <v>10</v>
       </c>
       <c r="I29" s="3">
@@ -1531,19 +1739,22 @@
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>41157</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>41178</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="28">
+        <v>6</v>
+      </c>
+      <c r="G30" s="28">
         <v>6</v>
       </c>
       <c r="I30" s="3">
@@ -1555,22 +1766,22 @@
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>41137</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>41178</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="28">
         <v>25</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="28">
         <v>10</v>
       </c>
       <c r="I31" s="3">
@@ -1579,33 +1790,33 @@
       </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="31">
         <f>SUM(F3:F31)</f>
         <v>181</v>
       </c>
-      <c r="G33" s="34"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32">
         <f>SUM(G3:G31)</f>
-        <v>114</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="35" spans="5:7">
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36">
+      <c r="F35" s="33"/>
+      <c r="G35" s="33">
         <f>G34-F33</f>
-        <v>-67</v>
+        <v>-40.5</v>
       </c>
     </row>
   </sheetData>
@@ -1636,13 +1847,716 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="60"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="50">
+        <v>2</v>
+      </c>
+      <c r="G6" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="50">
+        <v>2</v>
+      </c>
+      <c r="G7" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="50">
+        <v>3</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="50">
+        <v>4</v>
+      </c>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="50">
+        <v>3</v>
+      </c>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="50">
+        <v>8</v>
+      </c>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7" ht="28">
+      <c r="A13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="54">
+        <v>10</v>
+      </c>
+      <c r="G13" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="50">
+        <v>3</v>
+      </c>
+      <c r="G14" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="50">
+        <v>9</v>
+      </c>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="50">
+        <v>7</v>
+      </c>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="50">
+        <v>7</v>
+      </c>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="50">
+        <v>7</v>
+      </c>
+      <c r="G21" s="50"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="50">
+        <v>7</v>
+      </c>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="50">
+        <v>7</v>
+      </c>
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="50">
+        <v>7</v>
+      </c>
+      <c r="G25" s="50"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="50">
+        <v>7</v>
+      </c>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="50">
+        <v>7</v>
+      </c>
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="50">
+        <v>30</v>
+      </c>
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="50">
+        <v>10</v>
+      </c>
+      <c r="G31" s="50"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="50">
+        <v>10</v>
+      </c>
+      <c r="G32" s="50"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="50">
+        <v>6</v>
+      </c>
+      <c r="G33" s="50"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="50">
+        <v>25</v>
+      </c>
+      <c r="G34" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="57">
+        <f>SUM(F5:F34)</f>
+        <v>181</v>
+      </c>
+      <c r="G36" s="57"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50">
+        <f>SUM(G6:G34)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59">
+        <f>F36-G37</f>
+        <v>167.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Projektdokumente/Projektplan.xlsx
+++ b/Projektdokumente/Projektplan.xlsx
@@ -655,28 +655,7 @@
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1847,6 +1826,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2555,11 +2537,11 @@
     <mergeCell ref="E1:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/Projektdokumente/Projektplan.xlsx
+++ b/Projektdokumente/Projektplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15340"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="88">
   <si>
     <t>Aktivität</t>
   </si>
@@ -972,23 +972,23 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A31" sqref="A2:A31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13" style="8" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="56">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="63">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="27">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>10</v>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="27">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>10</v>
@@ -1584,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="27">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H24" s="23" t="s">
         <v>10</v>
@@ -1614,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="27">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>10</v>
@@ -1644,7 +1644,7 @@
         <v>30</v>
       </c>
       <c r="G26" s="27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H26" s="23" t="s">
         <v>10</v>
@@ -1685,9 +1685,15 @@
       <c r="F28" s="28">
         <v>10</v>
       </c>
+      <c r="G28" s="28">
+        <v>9</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="I28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1709,9 +1715,15 @@
       <c r="F29" s="28">
         <v>10</v>
       </c>
+      <c r="G29" s="28">
+        <v>4</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="I29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1736,9 +1748,12 @@
       <c r="G30" s="28">
         <v>6</v>
       </c>
+      <c r="H30" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="I30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1761,11 +1776,14 @@
         <v>25</v>
       </c>
       <c r="G31" s="28">
+        <v>30</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -1785,7 +1803,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="32">
         <f>SUM(G3:G31)</f>
-        <v>140.5</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -1795,7 +1813,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="33">
         <f>G34-F33</f>
-        <v>-40.5</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1830,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <ignoredErrors>
     <ignoredError sqref="A2:A6 A7:A8" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -1831,8 +1849,8 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
